--- a/lista_compras.xlsx
+++ b/lista_compras.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,41 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mão</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tênis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>o cavalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>noutro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
